--- a/livefile/links.xlsx
+++ b/livefile/links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BukehiWeb\livefile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7770E4-3391-4A18-8779-E9C78A5F37EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A363F99-BE22-4864-80D8-E389CF0A5ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17295" yWindow="6240" windowWidth="9510" windowHeight="7035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="2715" windowWidth="9510" windowHeight="7035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mp4" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="2013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2970" uniqueCount="2027">
   <si>
     <t>001</t>
   </si>
@@ -60452,6 +60452,86 @@
   <si>
     <t>hh3</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/06/746d312e1db84ef88375b1f2989010b5.mp4</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/06/027d4ce209814ded88f4a5c9793efeab.mp4</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/06/1d17e9733a4c44d39cf5bc686e42b357.mp4</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/06/372e79e0fc2e48f29cdd65b8a4261c1b.mp4</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/06/65a907f27ba44aaead988d698d741faa.mp4</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/06/c2ddd75b6df84bfba78442b427b26e55.mp4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1533091283-1-192Part001</t>
+  </si>
+  <si>
+    <t>1533091283-1-192Part003</t>
+  </si>
+  <si>
+    <t>1533091283-1-192Part004</t>
+  </si>
+  <si>
+    <t>1533091283-1-192Part005</t>
+  </si>
+  <si>
+    <t>1533091283-1-192Part002</t>
+  </si>
+  <si>
+    <t>1533091283-1-192Part006</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/06/00367f190c28428d9b05ca7ebdf6e663.mp3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>《崩坏：星穹铁道》「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星铁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LIVE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」演唱会官方录播完整版</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -60800,10 +60880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D735"/>
+  <dimension ref="A1:D744"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A726" workbookViewId="0">
-      <selection activeCell="D731" sqref="D731"/>
+    <sheetView tabSelected="1" topLeftCell="A737" workbookViewId="0">
+      <selection activeCell="B738" sqref="B738:B744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -70748,7 +70828,7 @@
         <v>6</v>
       </c>
       <c r="B677" s="6" t="str">
-        <f t="shared" ref="B677:B735" si="13">HYPERLINK(C677,D677)</f>
+        <f t="shared" ref="B677:B741" si="13">HYPERLINK(C677,D677)</f>
         <v>新世纪福音战士1995 第18集 在线观看-樱花 动漫1</v>
       </c>
       <c r="C677" s="3" t="s">
@@ -71359,225 +71439,393 @@
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B718" s="6" t="str">
+      <c r="A718" s="8"/>
+      <c r="B718" s="6"/>
+      <c r="D718" s="7"/>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A719" s="8" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B719" s="6" t="str">
         <f t="shared" si="13"/>
         <v>未live1</v>
       </c>
-      <c r="C718" s="3" t="s">
+      <c r="C719" s="3" t="s">
         <v>1980</v>
       </c>
-      <c r="D718" s="7" t="s">
+      <c r="D719" s="7" t="s">
         <v>1982</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B719" s="6" t="str">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A720" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B720" s="6" t="str">
         <f t="shared" si="13"/>
         <v>未live2</v>
       </c>
-      <c r="C719" s="3" t="s">
+      <c r="C720" s="3" t="s">
         <v>1981</v>
       </c>
-      <c r="D719" s="7" t="s">
+      <c r="D720" s="7" t="s">
         <v>1983</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B720" s="6" t="str">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A721" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B721" s="6" t="str">
         <f t="shared" si="13"/>
         <v>直到台风1Part001</v>
       </c>
-      <c r="C720" s="3" t="s">
+      <c r="C721" s="3" t="s">
         <v>1984</v>
       </c>
-      <c r="D720" s="7" t="s">
+      <c r="D721" s="7" t="s">
         <v>1993</v>
       </c>
     </row>
-    <row r="721" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B721" s="6" t="str">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A722" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B722" s="6" t="str">
         <f t="shared" si="13"/>
         <v>直到台风1Part002</v>
       </c>
-      <c r="C721" s="3" t="s">
+      <c r="C722" s="3" t="s">
         <v>1985</v>
       </c>
-      <c r="D721" s="7" t="s">
+      <c r="D722" s="7" t="s">
         <v>1994</v>
       </c>
     </row>
-    <row r="722" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B722" s="6" t="str">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A723" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B723" s="6" t="str">
         <f t="shared" si="13"/>
         <v>直到台风1Part003</v>
       </c>
-      <c r="C722" s="3" t="s">
+      <c r="C723" s="3" t="s">
         <v>1986</v>
       </c>
-      <c r="D722" s="7" t="s">
+      <c r="D723" s="7" t="s">
         <v>1995</v>
       </c>
     </row>
-    <row r="723" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B723" s="6" t="str">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A724" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B724" s="6" t="str">
         <f t="shared" si="13"/>
         <v>直到台风过境2Part001</v>
       </c>
-      <c r="C723" s="3" t="s">
+      <c r="C724" s="3" t="s">
         <v>1987</v>
       </c>
-      <c r="D723" s="7" t="s">
+      <c r="D724" s="7" t="s">
         <v>1996</v>
       </c>
     </row>
-    <row r="724" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B724" s="6" t="str">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A725" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B725" s="6" t="str">
         <f t="shared" si="13"/>
         <v>直到台风过境2Part002</v>
       </c>
-      <c r="C724" s="3" t="s">
+      <c r="C725" s="3" t="s">
         <v>1988</v>
       </c>
-      <c r="D724" s="7" t="s">
+      <c r="D725" s="7" t="s">
         <v>1997</v>
       </c>
     </row>
-    <row r="725" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B725" s="6" t="str">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A726" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B726" s="6" t="str">
         <f t="shared" si="13"/>
         <v>直到台风过境2Part003</v>
       </c>
-      <c r="C725" s="3" t="s">
+      <c r="C726" s="3" t="s">
         <v>1989</v>
       </c>
-      <c r="D725" s="7" t="s">
+      <c r="D726" s="7" t="s">
         <v>1998</v>
       </c>
     </row>
-    <row r="726" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B726" s="6" t="str">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A727" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B727" s="6" t="str">
         <f t="shared" si="13"/>
         <v>直到台风过境3Part001</v>
       </c>
-      <c r="C726" s="3" t="s">
+      <c r="C727" s="3" t="s">
         <v>1990</v>
       </c>
-      <c r="D726" s="7" t="s">
+      <c r="D727" s="7" t="s">
         <v>1999</v>
       </c>
     </row>
-    <row r="727" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B727" s="6" t="str">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A728" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B728" s="6" t="str">
         <f t="shared" si="13"/>
         <v>直到台风过境3Part002</v>
       </c>
-      <c r="C727" s="3" t="s">
+      <c r="C728" s="3" t="s">
         <v>1991</v>
       </c>
-      <c r="D727" s="7" t="s">
+      <c r="D728" s="7" t="s">
         <v>2000</v>
       </c>
     </row>
-    <row r="728" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B728" s="6" t="str">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A729" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B729" s="6" t="str">
         <f t="shared" si="13"/>
         <v>直到台风过境3Part003</v>
       </c>
-      <c r="C728" s="3" t="s">
+      <c r="C729" s="3" t="s">
         <v>1992</v>
       </c>
-      <c r="D728" s="7" t="s">
+      <c r="D729" s="7" t="s">
         <v>2001</v>
       </c>
     </row>
-    <row r="729" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B729" s="6" t="str">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A730" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B730" s="6" t="str">
         <f t="shared" si="13"/>
         <v>第二局</v>
       </c>
-      <c r="C729" s="3" t="s">
+      <c r="C730" s="3" t="s">
         <v>2002</v>
       </c>
-      <c r="D729" s="7" t="s">
+      <c r="D730" s="7" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="730" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B730" s="6" t="str">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A731" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B731" s="6" t="str">
         <f t="shared" si="13"/>
         <v>第三局</v>
       </c>
-      <c r="C730" s="3" t="s">
+      <c r="C731" s="3" t="s">
         <v>2003</v>
       </c>
-      <c r="D730" s="7" t="s">
+      <c r="D731" s="7" t="s">
         <v>2006</v>
       </c>
     </row>
-    <row r="731" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B731" s="6" t="str">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A732" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B732" s="6" t="str">
         <f t="shared" si="13"/>
         <v>第四局</v>
       </c>
-      <c r="C731" s="3" t="s">
+      <c r="C732" s="3" t="s">
         <v>2004</v>
       </c>
-      <c r="D731" s="7" t="s">
+      <c r="D732" s="7" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="732" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B732" s="6" t="str">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A733" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B733" s="6" t="str">
         <f t="shared" si="13"/>
         <v>第一局</v>
       </c>
-      <c r="C732" s="3" t="s">
+      <c r="C733" s="3" t="s">
         <v>2005</v>
       </c>
-      <c r="D732" s="7" t="s">
+      <c r="D733" s="7" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="733" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B733" s="6" t="str">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A734" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B734" s="6" t="str">
         <f t="shared" si="13"/>
         <v>hh1</v>
       </c>
-      <c r="C733" s="8" t="s">
+      <c r="C734" s="8" t="s">
         <v>2009</v>
       </c>
-      <c r="D733" s="8" t="s">
+      <c r="D734" s="8" t="s">
         <v>2010</v>
       </c>
     </row>
-    <row r="734" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B734" s="6" t="str">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A735" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B735" s="6" t="str">
         <f t="shared" si="13"/>
         <v>hh2</v>
       </c>
-      <c r="C734" s="3" t="s">
+      <c r="C735" s="3" t="s">
         <v>2007</v>
       </c>
-      <c r="D734" s="8" t="s">
+      <c r="D735" s="8" t="s">
         <v>2011</v>
       </c>
     </row>
-    <row r="735" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B735" s="6" t="str">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A736" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B736" s="6" t="str">
         <f t="shared" si="13"/>
         <v>hh3</v>
       </c>
-      <c r="C735" s="3" t="s">
+      <c r="C736" s="3" t="s">
         <v>2008</v>
       </c>
-      <c r="D735" s="8" t="s">
+      <c r="D736" s="8" t="s">
         <v>2012</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A738" s="8" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B738" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>1533091283-1-192Part001</v>
+      </c>
+      <c r="C738" s="6" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D738" s="3" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A739" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B739" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>1533091283-1-192Part003</v>
+      </c>
+      <c r="C739" s="3" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D739" s="3" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A740" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B740" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>1533091283-1-192Part004</v>
+      </c>
+      <c r="C740" s="3" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D740" s="3" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A741" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B741" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>1533091283-1-192Part005</v>
+      </c>
+      <c r="C741" s="3" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D741" s="3" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A742" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B742" s="6" t="str">
+        <f t="shared" ref="B742:B744" si="14">HYPERLINK(C742,D742)</f>
+        <v>1533091283-1-192Part002</v>
+      </c>
+      <c r="C742" s="3" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D742" s="3" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A743" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B743" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>1533091283-1-192Part006</v>
+      </c>
+      <c r="C743" s="3" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D743" s="3" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A744" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B744" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>《崩坏：星穹铁道》「2024星铁LIVE」演唱会官方录播完整版</v>
+      </c>
+      <c r="C744" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D744" s="7" t="s">
+        <v>2026</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C738" r:id="rId1" xr:uid="{CF98AA47-FDE8-4F56-90DF-441F03F6C0B0}"/>
+    <hyperlink ref="C744" r:id="rId2" xr:uid="{F9F1350E-F18B-49CD-850C-DE0CC05A9912}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/livefile/links.xlsx
+++ b/livefile/links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27707"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BukehiWeb\livefile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A363F99-BE22-4864-80D8-E389CF0A5ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4973CC9C-47EA-4CC1-90E4-EC78CB978467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="2715" windowWidth="9510" windowHeight="7035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="17145" yWindow="9195" windowWidth="11970" windowHeight="8835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mp4" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2970" uniqueCount="2027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="2033">
   <si>
     <t>001</t>
   </si>
@@ -60502,7 +60502,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2024</t>
     </r>
@@ -60519,7 +60519,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>LIVE</t>
     </r>
@@ -60531,6 +60531,60 @@
         <charset val="134"/>
       </rPr>
       <t>」演唱会官方录播完整版</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/09/f15e9b4e0de24800bea5f60d5e175c3c.pptx</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/09/8d1fe1b5ff5144e6944e90af64b2c061.pptx</t>
+  </si>
+  <si>
+    <t>chao</t>
+  </si>
+  <si>
+    <t>xxshn</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/09/762b2d28927e467b8a01e5fcea4f15c5.mp4</t>
+  </si>
+  <si>
+    <r>
+      <t>【时代少年团】《那些没说过的话》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《好望</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>角》</t>
     </r>
   </si>
 </sst>
@@ -60880,10 +60934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D744"/>
+  <dimension ref="A1:D747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A737" workbookViewId="0">
-      <selection activeCell="B738" sqref="B738:B744"/>
+    <sheetView tabSelected="1" topLeftCell="A740" workbookViewId="0">
+      <selection activeCell="B745" sqref="B745:B747"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -71778,7 +71832,7 @@
         <v>12</v>
       </c>
       <c r="B742" s="6" t="str">
-        <f t="shared" ref="B742:B744" si="14">HYPERLINK(C742,D742)</f>
+        <f t="shared" ref="B742:B747" si="14">HYPERLINK(C742,D742)</f>
         <v>1533091283-1-192Part002</v>
       </c>
       <c r="C742" s="3" t="s">
@@ -71816,6 +71870,42 @@
       </c>
       <c r="D744" s="7" t="s">
         <v>2026</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B745" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>chao</v>
+      </c>
+      <c r="C745" s="3" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D745" s="3" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B746" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>xxshn</v>
+      </c>
+      <c r="C746" s="3" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D746" s="3" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B747" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>【时代少年团】《那些没说过的话》+《好望 角》</v>
+      </c>
+      <c r="C747" s="3" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D747" s="7" t="s">
+        <v>2032</v>
       </c>
     </row>
   </sheetData>

--- a/livefile/links.xlsx
+++ b/livefile/links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27707"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27708"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BukehiWeb\livefile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4973CC9C-47EA-4CC1-90E4-EC78CB978467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E93D30-4357-4871-8639-DBEA54595D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="17145" yWindow="9195" windowWidth="11970" windowHeight="8835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="6645" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mp4" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="2033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2986" uniqueCount="2038">
   <si>
     <t>001</t>
   </si>
@@ -60556,7 +60556,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>+</t>
     </r>
@@ -60573,7 +60573,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -60586,6 +60586,21 @@
       </rPr>
       <t>角》</t>
     </r>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/11/3e326f0cfe3647cfad93adc8c9a4c224.mp4</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/11/07c96453b76741bbbb9c316dede76c1c.mp4</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/11/a53aa46f227e4e1a99be625794d31fb3.mp4</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/11/057a2f71ad184792910588f960790a34.mp4</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/11/7c16371832c9421aaf6f97da7a9b7b47.mp4</t>
   </si>
 </sst>
 </file>
@@ -60934,10 +60949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D747"/>
+  <dimension ref="A1:D752"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A740" workbookViewId="0">
-      <selection activeCell="B745" sqref="B745:B747"/>
+      <selection activeCell="B748" sqref="B748:B752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -71832,7 +71847,7 @@
         <v>12</v>
       </c>
       <c r="B742" s="6" t="str">
-        <f t="shared" ref="B742:B747" si="14">HYPERLINK(C742,D742)</f>
+        <f t="shared" ref="B742:B752" si="14">HYPERLINK(C742,D742)</f>
         <v>1533091283-1-192Part002</v>
       </c>
       <c r="C742" s="3" t="s">
@@ -71906,6 +71921,66 @@
       </c>
       <c r="D747" s="7" t="s">
         <v>2032</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B748" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>第二局</v>
+      </c>
+      <c r="C748" s="3" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D748" s="7" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B749" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>第三局</v>
+      </c>
+      <c r="C749" s="3" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D749" s="7" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B750" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>第四局</v>
+      </c>
+      <c r="C750" s="3" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D750" s="7" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B751" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>第五局</v>
+      </c>
+      <c r="C751" s="3" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D751" s="7" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B752" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>第一局</v>
+      </c>
+      <c r="C752" s="3" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D752" s="7" t="s">
+        <v>1140</v>
       </c>
     </row>
   </sheetData>

--- a/livefile/links.xlsx
+++ b/livefile/links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BukehiWeb\livefile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E93D30-4357-4871-8639-DBEA54595D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426B1840-EC94-4BA9-A61B-C68F69ACAD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="6645" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19545" yWindow="7890" windowWidth="10740" windowHeight="7200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mp4" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2986" uniqueCount="2038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="2057">
   <si>
     <t>001</t>
   </si>
@@ -60601,6 +60601,82 @@
   </si>
   <si>
     <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/11/7c16371832c9421aaf6f97da7a9b7b47.mp4</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/12/059a74c2a7544c5ba040c971610a29a7.mp4</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/12/80255e9c76834f2e983fed6de963a851.mp4</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/12/2fec4c4b62274da899b503cd7efb41a6.mp4</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/12/efd5f0911824405899be1d59165f326e.mp4</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/12/6f22c15c6eee4d57ab2618ef02fd9ed3.mp4</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/12/79298da287d14993a3e060163ca4097a.mp4</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/12/2641af381f4d42ca97d138f2934e4984.mp4</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/12/a1fcf6c578c94ef4b4b304fadd0662c9.mp4</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/12/340e293f1a1a4d54a1fb648ae4ff90fb.mp4</t>
+  </si>
+  <si>
+    <t>https://www.101eduyun.com/sunrise/common/attachment/viewAttachment.do?vPath=discuss/2024/05/12/ec2057b710654c8a97bb7b378a2736b8.mp4</t>
+  </si>
+  <si>
+    <r>
+      <t>汪苏泷《歌手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>》第一期《想到我们》</t>
+    </r>
+  </si>
+  <si>
+    <t>1369082561-1-192</t>
+  </si>
+  <si>
+    <t>1457262447-1-192</t>
+  </si>
+  <si>
+    <t>1486564500-1-192</t>
+  </si>
+  <si>
+    <t>1502447370-1-192</t>
+  </si>
+  <si>
+    <t>1256652675-1-192</t>
+  </si>
+  <si>
+    <t>1260953047-1-192</t>
+  </si>
+  <si>
+    <t>1298925721-1-192</t>
+  </si>
+  <si>
+    <t>1540857140-1-192</t>
   </si>
 </sst>
 </file>
@@ -60949,10 +61025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D752"/>
+  <dimension ref="A1:D762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A740" workbookViewId="0">
-      <selection activeCell="B748" sqref="B748:B752"/>
+    <sheetView tabSelected="1" topLeftCell="A754" workbookViewId="0">
+      <selection activeCell="B753" sqref="B753:B762"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -71847,7 +71923,7 @@
         <v>12</v>
       </c>
       <c r="B742" s="6" t="str">
-        <f t="shared" ref="B742:B752" si="14">HYPERLINK(C742,D742)</f>
+        <f t="shared" ref="B742:B762" si="14">HYPERLINK(C742,D742)</f>
         <v>1533091283-1-192Part002</v>
       </c>
       <c r="C742" s="3" t="s">
@@ -71980,6 +72056,126 @@
         <v>2037</v>
       </c>
       <c r="D752" s="7" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="753" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B753" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>汪苏泷《歌手2024》第一期《想到我们》</v>
+      </c>
+      <c r="C753" s="3" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D753" s="7" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="754" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B754" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>1369082561-1-192</v>
+      </c>
+      <c r="C754" s="3" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D754" s="3" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="755" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B755" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>1457262447-1-192</v>
+      </c>
+      <c r="C755" s="3" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D755" s="3" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="756" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B756" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>1486564500-1-192</v>
+      </c>
+      <c r="C756" s="3" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D756" s="3" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="757" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B757" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>1502447370-1-192</v>
+      </c>
+      <c r="C757" s="3" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D757" s="3" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="758" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B758" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>1256652675-1-192</v>
+      </c>
+      <c r="C758" s="3" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D758" s="3" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="759" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B759" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>1260953047-1-192</v>
+      </c>
+      <c r="C759" s="3" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D759" s="3" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="760" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B760" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>1298925721-1-192</v>
+      </c>
+      <c r="C760" s="3" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D760" s="3" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="761" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B761" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>1540857140-1-192</v>
+      </c>
+      <c r="C761" s="3" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D761" s="3" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="762" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B762" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>第一局</v>
+      </c>
+      <c r="C762" s="3" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D762" s="7" t="s">
         <v>1140</v>
       </c>
     </row>
